--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="535">
   <si>
     <t>TestCase</t>
   </si>
@@ -3585,10 +3585,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4579,7 +4582,7 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5029,7 +5032,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7795,8 +7798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6:AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8835,7 +8838,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9734,8 +9737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9939,6 +9942,12 @@
       </c>
       <c r="R2" t="s">
         <v>46</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>71</v>
@@ -11141,8 +11150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11347,10 +11356,19 @@
         <v>70</v>
       </c>
       <c r="O2" s="9"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="R2" t="s">
         <v>46</v>
       </c>
+      <c r="S2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="6"/>
       <c r="V2" s="3" t="s">
         <v>71</v>
       </c>
@@ -11433,6 +11451,9 @@
       <c r="O3" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="Z3" s="6"/>
@@ -13933,8 +13954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14162,6 +14183,12 @@
       <c r="U2" t="s">
         <v>46</v>
       </c>
+      <c r="V2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="Y2" s="3" t="s">
         <v>71</v>
       </c>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="535">
   <si>
     <t>TestCase</t>
   </si>
@@ -3231,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9737,8 +9737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9917,9 +9917,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="8"/>
       <c r="I2" t="s">
         <v>137</v>
@@ -10019,9 +10017,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="8"/>
       <c r="J3" s="8"/>
       <c r="O3" s="9" t="s">
@@ -10462,8 +10458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AM5" sqref="AM5"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10684,9 +10680,7 @@
       <c r="Q2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="S2" s="6"/>
       <c r="T2" s="3" t="s">
         <v>117</v>
       </c>
@@ -11150,8 +11144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11337,9 +11331,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="G2" s="6"/>
       <c r="I2" t="s">
         <v>137</v>
       </c>
@@ -11445,9 +11437,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="O3" s="9" t="s">
         <v>77</v>
       </c>
@@ -13584,10 +13574,10 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13595,7 +13585,7 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -13618,106 +13608,109 @@
         <v>126</v>
       </c>
       <c r="H1" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="I1" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="J1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="K1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="L1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="M1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="N1" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="O1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="P1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="Q1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="R1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="S1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="T1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="U1" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="V1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="W1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="X1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="Y1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Z1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="AA1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AB1" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AC1" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AD1" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AE1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="64" t="s">
+      <c r="AF1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="64" t="s">
+      <c r="AG1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="64" t="s">
+      <c r="AH1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="64" t="s">
+      <c r="AI1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AJ1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="64" t="s">
+      <c r="AK1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="64" t="s">
+      <c r="AL1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="64" t="s">
+      <c r="AM1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="64" t="s">
+      <c r="AN1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="64" t="s">
+      <c r="AO1" s="64" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>125</v>
       </c>
@@ -13735,93 +13728,94 @@
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="65"/>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="J2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="M2" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="N2" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="O2" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="65"/>
       <c r="P2" s="65"/>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="65"/>
       <c r="S2" s="65"/>
       <c r="T2" s="65"/>
-      <c r="U2" s="66" t="s">
+      <c r="U2" s="65"/>
+      <c r="V2" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="66" t="s">
+      <c r="W2" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="65" t="s">
+      <c r="X2" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="Y2" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="69" t="s">
+      <c r="Z2" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" s="69" t="s">
+      <c r="AA2" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="AA2" s="66" t="s">
+      <c r="AB2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="65" t="s">
+      <c r="AC2" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="71" t="s">
+      <c r="AD2" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="65" t="s">
+      <c r="AE2" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="65" t="s">
+      <c r="AF2" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="66" t="s">
+      <c r="AG2" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="71" t="s">
+      <c r="AH2" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="71" t="s">
+      <c r="AI2" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="66" t="s">
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="66" t="s">
+      <c r="AL2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AL2" s="66" t="s">
+      <c r="AM2" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AM2" s="66" t="s">
+      <c r="AN2" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" s="65" t="s">
+      <c r="AO2" s="65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>128</v>
       </c>
@@ -13839,47 +13833,48 @@
       </c>
       <c r="F3" s="65"/>
       <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
       <c r="R3" s="65"/>
       <c r="S3" s="65"/>
       <c r="T3" s="65"/>
-      <c r="U3" s="66"/>
+      <c r="U3" s="65"/>
       <c r="V3" s="66"/>
-      <c r="W3" s="65"/>
+      <c r="W3" s="66"/>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
       <c r="Z3" s="65"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="66"/>
       <c r="AC3" s="65"/>
       <c r="AD3" s="65"/>
       <c r="AE3" s="65"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="66"/>
       <c r="AH3" s="65"/>
       <c r="AI3" s="65"/>
-      <c r="AJ3" s="66" t="s">
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" s="66" t="s">
+      <c r="AL3" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" s="66" t="s">
+      <c r="AM3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="66" t="s">
+      <c r="AN3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AN3" s="65" t="s">
+      <c r="AO3" s="65" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13954,8 +13949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:W2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14157,9 +14152,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="L2" t="s">
         <v>137</v>
@@ -14269,9 +14262,7 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="R3" s="9" t="s">
         <v>77</v>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -47,27 +47,28 @@
     <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId38"/>
     <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId39"/>
     <sheet name="DunningProcess" sheetId="41" r:id="rId40"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId41"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId42"/>
-    <sheet name="LocalCall" sheetId="40" r:id="rId43"/>
-    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId44"/>
-    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId45"/>
-    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId46"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId47"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId48"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId49"/>
-    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId50"/>
-    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId51"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId52"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId53"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId54"/>
-    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId55"/>
-    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId56"/>
-    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId57"/>
-    <sheet name="Cancel_Order" sheetId="67" r:id="rId58"/>
+    <sheet name="Trial_BillRun" sheetId="68" r:id="rId41"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId42"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId43"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId44"/>
+    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId45"/>
+    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId46"/>
+    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId47"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId48"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId49"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId50"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId51"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId52"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId53"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId54"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId55"/>
+    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId56"/>
+    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId57"/>
+    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId58"/>
+    <sheet name="Cancel_Order" sheetId="67" r:id="rId59"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId59"/>
+    <externalReference r:id="rId60"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="540">
   <si>
     <t>TestCase</t>
   </si>
@@ -1682,6 +1683,21 @@
   </si>
   <si>
     <t>Order_Level</t>
+  </si>
+  <si>
+    <t>Ext_Cust</t>
+  </si>
+  <si>
+    <t>Bill_Profile</t>
+  </si>
+  <si>
+    <t>Bill_Cycle</t>
+  </si>
+  <si>
+    <t>Spendlimit</t>
+  </si>
+  <si>
+    <t>0.01</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2220,6 +2236,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3231,8 +3253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3585,7 +3607,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3664,7 +3686,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,10 +3776,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3765,7 +3787,7 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3782,70 +3804,75 @@
         <v>506</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4011,10 +4038,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4043,9 +4070,10 @@
     <col min="25" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4130,8 +4158,11 @@
       <c r="AB1" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>354</v>
       </c>
@@ -4194,8 +4225,9 @@
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>355</v>
       </c>
@@ -4214,8 +4246,9 @@
       <c r="I3" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19" t="s">
         <v>32</v>
@@ -6746,10 +6779,609 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="83"/>
+      <c r="H2" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="84"/>
+      <c r="K2" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="58"/>
+      <c r="O2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="84"/>
+      <c r="U2" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="56">
+        <v>12181980</v>
+      </c>
+      <c r="Z2" s="56">
+        <v>12142020</v>
+      </c>
+      <c r="AA2" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="56">
+        <v>97498098089</v>
+      </c>
+      <c r="AD2" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="56">
+        <v>12345</v>
+      </c>
+      <c r="AH2" s="56">
+        <v>51232</v>
+      </c>
+      <c r="AJ2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM2" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="83"/>
+      <c r="N3" s="58">
+        <v>1126194</v>
+      </c>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AJ3" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN3" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Q2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6793,7 +7425,7 @@
     <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6810,203 +7442,205 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AE1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AF1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AK1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AL1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AM1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AN1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>354</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="83"/>
+      <c r="H2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="I2" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="84"/>
+      <c r="K2" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="L2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="M2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="Q2" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="T2" s="56" t="s">
+      <c r="R2" s="84"/>
+      <c r="U2" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="V2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="W2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="X2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="56">
+      <c r="Y2" s="56">
         <v>12181980</v>
       </c>
-      <c r="Y2" s="56">
+      <c r="Z2" s="56">
         <v>12142020</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="AA2" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="56" t="s">
+      <c r="AB2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="56">
+      <c r="AC2" s="56">
         <v>97498098089</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AD2" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" s="56" t="s">
+      <c r="AE2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="56" t="s">
+      <c r="AF2" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="56">
+      <c r="AG2" s="56">
         <v>12345</v>
       </c>
-      <c r="AG2" s="56">
+      <c r="AH2" s="56">
         <v>51232</v>
       </c>
-      <c r="AI2" s="56" t="s">
+      <c r="AJ2" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="AJ2" s="56" t="s">
+      <c r="AK2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AK2" s="56" t="s">
+      <c r="AL2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" s="56" t="s">
+      <c r="AM2" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="AM2" s="56" t="s">
+      <c r="AN2" s="56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>355</v>
       </c>
@@ -7016,626 +7650,34 @@
       <c r="C3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="M3" s="58">
+      <c r="F3" s="83"/>
+      <c r="N3" s="58">
         <v>1126194</v>
       </c>
-      <c r="T3" s="59"/>
       <c r="U3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AI3" s="56" t="s">
+      <c r="V3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AJ3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="AJ3" s="56" t="s">
+      <c r="AK3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AK3" s="56" t="s">
+      <c r="AL3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="56" t="s">
+      <c r="AM3" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="AM3" s="56" t="s">
+      <c r="AN3" s="56" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="P2:Q2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB4"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="82"/>
-      <c r="T2" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" s="56">
-        <v>12181980</v>
-      </c>
-      <c r="Y2" s="56">
-        <v>12142020</v>
-      </c>
-      <c r="Z2" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="56">
-        <v>97498098089</v>
-      </c>
-      <c r="AC2" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE2" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="56">
-        <v>12345</v>
-      </c>
-      <c r="AG2" s="56">
-        <v>51232</v>
-      </c>
-      <c r="AI2" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL2" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM2" s="56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="58">
-        <v>1126194</v>
-      </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AI3" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK3" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL3" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM3" s="56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7646,14 +7688,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7688,9 +7730,6 @@
       <c r="E2" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9584,7 +9623,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9735,10 +9774,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9749,39 +9788,40 @@
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9804,103 +9844,106 @@
         <v>506</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -9917,90 +9960,95 @@
         <v>33</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
-      <c r="I2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>69</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6"/>
+      <c r="AL2" t="s">
         <v>49</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -10017,46 +10065,51 @@
         <v>33</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="O3" s="9" t="s">
+      <c r="G3" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="P3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="Z3" s="6"/>
+      <c r="X3" s="3"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="3"/>
-      <c r="AD3" s="6"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="3"/>
+      <c r="AE3" s="6"/>
+      <c r="AH3" s="3"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" t="s">
+      <c r="AK3" s="6"/>
+      <c r="AL3" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AK4" t="s">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AL4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AI5" s="6"/>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:K1">
+  <conditionalFormatting sqref="K1:L1">
     <cfRule type="duplicateValues" dxfId="47" priority="3"/>
     <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W3">
+  <conditionalFormatting sqref="X2:X3">
     <cfRule type="duplicateValues" dxfId="45" priority="1"/>
     <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
@@ -10120,6 +10173,63 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10170,7 +10280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10228,7 +10338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10273,7 +10383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -10315,7 +10425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -10361,7 +10471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -10401,7 +10511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -10454,12 +10564,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT7"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10680,7 +10790,9 @@
       <c r="Q2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>507</v>
+      </c>
       <c r="T2" s="3" t="s">
         <v>117</v>
       </c>
@@ -10842,309 +10954,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO3"/>
-  <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AC3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI3" s="21" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
@@ -11189,7 +11003,7 @@
     <col min="40" max="40" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11212,109 +11026,112 @@
         <v>506</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -11331,96 +11148,101 @@
         <v>33</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="I2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="J2" t="s">
         <v>137</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>69</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -11437,48 +11259,53 @@
         <v>33</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="O3" s="9" t="s">
+      <c r="G3" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="3"/>
+      <c r="V3" s="6"/>
       <c r="W3" s="3"/>
-      <c r="Z3" s="6"/>
+      <c r="X3" s="3"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="3"/>
-      <c r="AD3" s="6"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="3"/>
+      <c r="AE3" s="6"/>
+      <c r="AH3" s="3"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AI5" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:K1">
+  <conditionalFormatting sqref="K1:L1">
     <cfRule type="duplicateValues" dxfId="43" priority="3"/>
     <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W3">
+  <conditionalFormatting sqref="X2:X3">
     <cfRule type="duplicateValues" dxfId="41" priority="1"/>
     <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
@@ -11487,6 +11314,304 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AC3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -11781,7 +11906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -11850,11 +11975,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -11863,11 +11988,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -11876,11 +12001,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11893,7 +12018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA7"/>
   <sheetViews>
@@ -12324,7 +12449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD7"/>
   <sheetViews>
@@ -12755,7 +12880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB7"/>
   <sheetViews>
@@ -13174,7 +13299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -13373,7 +13498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -13572,12 +13697,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13728,7 +13853,9 @@
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="65"/>
-      <c r="H2" s="71"/>
+      <c r="H2" s="71" t="s">
+        <v>507</v>
+      </c>
       <c r="I2" s="65" t="s">
         <v>137</v>
       </c>
@@ -13833,7 +13960,9 @@
       </c>
       <c r="F3" s="65"/>
       <c r="G3" s="65"/>
-      <c r="H3" s="71"/>
+      <c r="H3" s="71" t="s">
+        <v>507</v>
+      </c>
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
       <c r="K3" s="65"/>
@@ -13883,7 +14012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -13947,10 +14076,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13997,7 +14126,7 @@
     <col min="43" max="43" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14026,112 +14155,115 @@
         <v>506</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -14152,96 +14284,101 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="L2" t="s">
+      <c r="I2" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="M2" t="s">
         <v>137</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>75</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -14262,79 +14399,84 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="R3" s="9" t="s">
+      <c r="I3" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="S3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AC3" s="6"/>
+      <c r="AA3" s="3"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="3"/>
-      <c r="AG3" s="6"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="3"/>
+      <c r="AH3" s="6"/>
+      <c r="AK3" s="3"/>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="AL5" s="6"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M1:N1">
+  <conditionalFormatting sqref="N1:O1">
     <cfRule type="duplicateValues" dxfId="39" priority="3"/>
     <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z3">
+  <conditionalFormatting sqref="AA2:AA3">
     <cfRule type="duplicateValues" dxfId="37" priority="1"/>
     <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -73,12 +73,12 @@
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="543">
   <si>
     <t>TestCase</t>
   </si>
@@ -1698,12 +1698,21 @@
   </si>
   <si>
     <t>0.01</t>
+  </si>
+  <si>
+    <t>NewCustomer_PriceOverride</t>
+  </si>
+  <si>
+    <t>PriceOverride_New</t>
+  </si>
+  <si>
+    <t>PriceOverride_Ext</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2254,7 +2263,107 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3587,16 +3696,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4320,12 +4429,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6766,12 +6875,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7365,12 +7474,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9774,10 +9883,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9821,7 +9930,7 @@
     <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9943,7 +10052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -10048,7 +10157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -10096,22 +10205,177 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK4" s="6"/>
       <c r="AL4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO4" s="3"/>
+      <c r="AQ4" s="3"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="P5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="3"/>
+      <c r="AE5" s="6"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4">
+    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10943,12 +11207,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10956,15 +11220,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
@@ -11003,7 +11267,7 @@
     <col min="40" max="40" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11131,7 +11395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -11242,7 +11506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -11297,17 +11561,186 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="3"/>
+      <c r="AE5" s="6"/>
+      <c r="AH5" s="3"/>
       <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X5">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11600,12 +12033,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11895,12 +12328,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12437,12 +12870,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12869,12 +13302,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13288,12 +13721,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14078,8 +14511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14436,9 +14869,119 @@
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F4" s="3"/>
+      <c r="A4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="M4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="9"/>
+      <c r="T4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>
@@ -14473,12 +15016,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="543">
   <si>
     <t>TestCase</t>
   </si>
@@ -2263,7 +2263,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3360,15 +3420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
@@ -3694,18 +3754,148 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="63" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4429,12 +4619,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4721,10 +4911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5164,6 +5354,136 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6875,12 +7195,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7474,12 +7794,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10362,20 +10682,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="57" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="55" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4">
-    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11207,12 +11527,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11222,8 +11542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11731,16 +12051,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="51" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="49" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12033,12 +12353,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12328,12 +12648,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12870,12 +13190,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13302,12 +13622,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13721,12 +14041,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15016,16 +15336,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="44" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId47"/>
     <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId48"/>
     <sheet name="SIPT" sheetId="14" r:id="rId49"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId50"/>
+    <sheet name="ConsumerFixedLine_Bulk" sheetId="30" r:id="rId50"/>
     <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId51"/>
     <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId52"/>
     <sheet name="ETHERNET" sheetId="46" r:id="rId53"/>
@@ -2263,47 +2263,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3878,24 +3838,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="69" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="67" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="65" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4619,12 +4579,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4913,7 +4873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:AG7"/>
     </sheetView>
   </sheetViews>
@@ -7195,12 +7155,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7794,12 +7754,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10682,20 +10642,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="63" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="61" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4">
-    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5">
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11527,12 +11487,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12051,16 +12011,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X5">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12070,8 +12030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12353,12 +12313,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12648,12 +12608,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13190,12 +13150,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13622,12 +13582,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14041,12 +14001,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15336,16 +15296,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" activeTab="91"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,25 @@
     <sheet name="Adjustments_BillingProfile" sheetId="78" r:id="rId75"/>
     <sheet name="Adjustments_Bill" sheetId="79" r:id="rId76"/>
     <sheet name="Adjustments_Item" sheetId="80" r:id="rId77"/>
+    <sheet name="ConsumerFL_Provision" sheetId="88" r:id="rId78"/>
+    <sheet name="IPTVConsumerFL_Provision" sheetId="89" r:id="rId79"/>
+    <sheet name="EnterpriseFL_Provision" sheetId="91" r:id="rId80"/>
+    <sheet name="IPTVEnterpriseFL_Provision" sheetId="93" r:id="rId81"/>
+    <sheet name=" TOM_RePush" sheetId="94" r:id="rId82"/>
+    <sheet name="COM_RePush" sheetId="95" r:id="rId83"/>
+    <sheet name="SOM_RePush" sheetId="96" r:id="rId84"/>
+    <sheet name="DAM_Create_Users" sheetId="97" r:id="rId85"/>
+    <sheet name="DAM_Edit_Users" sheetId="98" r:id="rId86"/>
+    <sheet name="DAM_Delete_Users" sheetId="99" r:id="rId87"/>
+    <sheet name="DAM_APP_Add" sheetId="100" r:id="rId88"/>
+    <sheet name="DAM_APP_Edit" sheetId="101" r:id="rId89"/>
+    <sheet name="DAM_APP_Delete" sheetId="102" r:id="rId90"/>
+    <sheet name="DAM_Portal_Add" sheetId="103" r:id="rId91"/>
+    <sheet name="DAM_Portal_Edit" sheetId="104" r:id="rId92"/>
+    <sheet name="DAM_Portal_Delete" sheetId="105" r:id="rId93"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId78"/>
+    <externalReference r:id="rId94"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -96,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="618">
   <si>
     <t>TestCase</t>
   </si>
@@ -1773,13 +1789,190 @@
   </si>
   <si>
     <t>OrderNo</t>
+  </si>
+  <si>
+    <t>IPdata</t>
+  </si>
+  <si>
+    <t>IPTV Service Bundle</t>
+  </si>
+  <si>
+    <t>CPE Bundle</t>
+  </si>
+  <si>
+    <t>Cdata</t>
+  </si>
+  <si>
+    <t>IPTV</t>
+  </si>
+  <si>
+    <t>ConsumerFL</t>
+  </si>
+  <si>
+    <t>EnterpriseFL</t>
+  </si>
+  <si>
+    <t>IPTVConsumerFL</t>
+  </si>
+  <si>
+    <t>IPTVEnterpriseFL</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>1-11135398795</t>
+  </si>
+  <si>
+    <t>TOM_RePush</t>
+  </si>
+  <si>
+    <t>Sub_Status</t>
+  </si>
+  <si>
+    <t>COM_RePush</t>
+  </si>
+  <si>
+    <t>SOM_RePush</t>
+  </si>
+  <si>
+    <t>Searching_Input </t>
+  </si>
+  <si>
+    <t>DAM_msisdn</t>
+  </si>
+  <si>
+    <t>DAM_imei</t>
+  </si>
+  <si>
+    <t>DAM_FirstName</t>
+  </si>
+  <si>
+    <t>DAM_LastName</t>
+  </si>
+  <si>
+    <t>DAM_Notification</t>
+  </si>
+  <si>
+    <t>DAM_Select_app</t>
+  </si>
+  <si>
+    <t>Edit_DAM_Select_app</t>
+  </si>
+  <si>
+    <t>Edit_DAM_Notification</t>
+  </si>
+  <si>
+    <t>Add_User</t>
+  </si>
+  <si>
+    <t>VFQA</t>
+  </si>
+  <si>
+    <t>Whatzapp</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>876542345678990</t>
+  </si>
+  <si>
+    <t>Edit_User</t>
+  </si>
+  <si>
+    <t>Delete_User</t>
+  </si>
+  <si>
+    <t>DAM_App_Appname</t>
+  </si>
+  <si>
+    <t>DAM_App_Url</t>
+  </si>
+  <si>
+    <t>DAM_App_category</t>
+  </si>
+  <si>
+    <t>DAM_APP_Type</t>
+  </si>
+  <si>
+    <t>DAM_APP_Comment</t>
+  </si>
+  <si>
+    <t>Add_App</t>
+  </si>
+  <si>
+    <t>sisir</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>External Link</t>
+  </si>
+  <si>
+    <t>Self Service</t>
+  </si>
+  <si>
+    <t>Edit_DAM_APP_Url</t>
+  </si>
+  <si>
+    <t>Edit_App</t>
+  </si>
+  <si>
+    <t>www.gmail.com</t>
+  </si>
+  <si>
+    <t>Delete_App</t>
+  </si>
+  <si>
+    <t>Portal_FirstName</t>
+  </si>
+  <si>
+    <t>Portal_LastName</t>
+  </si>
+  <si>
+    <t>Portal_USERNAME</t>
+  </si>
+  <si>
+    <t>Portal_PASSWORD</t>
+  </si>
+  <si>
+    <t>Portal_CONFIRM_PASSWORD</t>
+  </si>
+  <si>
+    <t>Portal_Role</t>
+  </si>
+  <si>
+    <t>portal_AddUser</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>maveric@4</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>portal_EditUser</t>
+  </si>
+  <si>
+    <t>portalpassword@1</t>
+  </si>
+  <si>
+    <t>portal_DeleteUser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1946,6 +2139,13 @@
       <color indexed="8"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2154,7 +2354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2389,17 +2589,232 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="82">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3832,16 +4247,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3850,11 +4265,17 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3911,6 +4332,52 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4382,10 +4849,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4662,14 +5129,17 @@
         <v>47</v>
       </c>
     </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5435,6 +5905,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5549,10 +6020,10 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5563,7 +6034,7 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5579,8 +6050,11 @@
       <c r="E1" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
@@ -5594,7 +6068,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
@@ -5608,7 +6082,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -5622,7 +6096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
@@ -5643,13 +6117,20 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <sheetPr codeName="Sheet65"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
@@ -5680,6 +6161,20 @@
         <v>33</v>
       </c>
       <c r="E2" s="81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="98" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7247,12 +7742,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7448,10 +7943,10 @@
       <c r="H2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="53" t="s">
         <v>44</v>
       </c>
@@ -7465,10 +7960,10 @@
       <c r="O2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="Q2" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="98"/>
+      <c r="R2" s="101"/>
       <c r="U2" s="53" t="s">
         <v>70</v>
       </c>
@@ -7856,12 +8351,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8615,10 +9110,10 @@
       <c r="H2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="53" t="s">
         <v>44</v>
       </c>
@@ -8632,10 +9127,10 @@
       <c r="O2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="Q2" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="98"/>
+      <c r="R2" s="101"/>
       <c r="U2" s="53" t="s">
         <v>70</v>
       </c>
@@ -9225,7 +9720,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D5" si="0">CONCATENATE(A3,"_Test")</f>
+        <f>CONCATENATE(A3,"_Test")</f>
         <v>ConsumerPostpaid_Test</v>
       </c>
     </row>
@@ -9235,7 +9730,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A4,"_Test")</f>
         <v>EnterprisePostpaid_Test</v>
       </c>
     </row>
@@ -9245,7 +9740,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A5,"_Test")</f>
         <v>EnterprisePrepaid_Test</v>
       </c>
     </row>
@@ -9941,12 +10436,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10519,6 +11014,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10852,6 +11348,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11164,6 +11661,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11236,6 +11734,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11286,11 +11785,11 @@
       <c r="D2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
       <c r="H2" s="93"/>
       <c r="J2" s="90" t="s">
         <v>349</v>
@@ -11734,12 +12233,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12406,12 +12905,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12705,12 +13204,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12722,7 +13221,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13001,12 +13500,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13082,11 +13581,11 @@
       <c r="E2" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -13095,11 +13594,11 @@
       <c r="E3" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -13108,11 +13607,11 @@
       <c r="E4" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13130,7 +13629,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AT11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView topLeftCell="AG1" workbookViewId="0">
       <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
@@ -13538,12 +14037,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13969,12 +14468,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13983,6 +14482,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14422,16 +14922,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14882,16 +15382,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14899,6 +15399,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15187,12 +15688,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15404,10 +15905,10 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="98"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="95" t="s">
         <v>44</v>
       </c>
@@ -15711,10 +16212,10 @@
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
-      <c r="AK5" s="99" t="s">
+      <c r="AK5" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="99"/>
+      <c r="AL5" s="102"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5" s="95" t="s">
@@ -15835,11 +16336,11 @@
       <c r="AL7"/>
       <c r="AM7"/>
       <c r="AN7"/>
-      <c r="AO7" s="99" t="s">
+      <c r="AO7" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
+      <c r="AP7" s="102"/>
+      <c r="AQ7" s="102"/>
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7"/>
@@ -16581,6 +17082,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16690,15 +17192,16 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16763,6 +17266,53 @@
         <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="F9" s="92" t="s">
         <v>33</v>
       </c>
     </row>
@@ -16881,6 +17431,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -16924,6 +17475,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16965,6 +17517,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17018,6 +17571,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17074,6 +17628,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17125,16 +17680,712 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet78"/>
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="90"/>
+    <col min="32" max="32" width="8.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL1" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM1" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN1" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO1" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP1" s="91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="92" t="s">
+        <v>555</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG2" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AE3" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I1:J1">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet79"/>
+  <dimension ref="A1:AQ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="90" customWidth="1"/>
+    <col min="8" max="8" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="90" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="90"/>
+    <col min="36" max="36" width="8.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>559</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM1" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="AN1" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO1" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP1" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="AQ1" s="91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="92" t="s">
+        <v>555</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AF3" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J1:K1">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A9" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -17192,6 +18443,1533 @@
       </c>
       <c r="D5" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet80"/>
+  <dimension ref="A1:AX7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="90" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" style="90"/>
+    <col min="43" max="43" width="8.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="AT1" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="AU1" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="AV1" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW1" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX1" s="91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="J2" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="L2" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="T2" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD2" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO2" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="92"/>
+      <c r="AF3" s="6"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN3" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ3" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ5" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B6" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="J6" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="W6" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB6" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE6" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF6" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG6" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL6" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM6" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN6" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO6" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B7" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="92"/>
+      <c r="AD7" s="6"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM7" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO7" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J5:K5">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6:W7">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:M1">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y3">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet81"/>
+  <dimension ref="A1:AY3"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="90" customWidth="1"/>
+    <col min="8" max="8" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="90"/>
+    <col min="36" max="36" width="8.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>559</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT1" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="AU1" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="AV1" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW1" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX1" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="AY1" s="91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="K2" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="9"/>
+      <c r="U2" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE2" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="92"/>
+      <c r="AG3" s="6"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO3" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR3" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:N1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z3">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet82"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="90"/>
+    <col min="4" max="4" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>570</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>569</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet83"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>569</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet84"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>569</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>576</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>578</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>580</v>
+      </c>
+      <c r="I1" s="91" t="s">
+        <v>581</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" s="90">
+        <v>2222</v>
+      </c>
+      <c r="C2" s="90">
+        <v>97412345690</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>587</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>584</v>
+      </c>
+      <c r="G2" s="90">
+        <v>123456789</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>585</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="J2" s="90">
+        <v>987654321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="90">
+        <v>97412345690</v>
+      </c>
+      <c r="C2" s="90">
+        <v>987654321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="90">
+        <v>97412345690</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>597</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>598</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>599</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="91"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="90"/>
+      <c r="E8" s="91"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="90"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.google.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -17201,6 +19979,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17257,4 +20036,204 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>606</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>607</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>612</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>613</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="mailto:maveric@4"/>
+    <hyperlink ref="G2" r:id="rId2" display="mailto:maveric@4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>616</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="100"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="103"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:portalpassword@1"/>
+    <hyperlink ref="C2" r:id="rId2" display="mailto:portalpassword@1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="90"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="90"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>